--- a/charts/first-results.xlsx
+++ b/charts/first-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Accuracy</t>
   </si>
@@ -51,10 +51,10 @@
     <t>High</t>
   </si>
   <si>
-    <t>decision Tree</t>
+    <t>Manhattan</t>
   </si>
   <si>
-    <t>Manhattan</t>
+    <t>Precison</t>
   </si>
 </sst>
 </file>
@@ -380,11 +380,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="86947712"/>
-        <c:axId val="86949248"/>
+        <c:axId val="87021440"/>
+        <c:axId val="87022976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86947712"/>
+        <c:axId val="87021440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,7 +393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86949248"/>
+        <c:crossAx val="87022976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -401,7 +401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86949248"/>
+        <c:axId val="87022976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,7 +412,871 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86947712"/>
+        <c:crossAx val="87021440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$K$11:$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$L$11:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$M$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$K$11:$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$M$11:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$N$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$K$11:$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$N$11:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neural Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$K$11:$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$O$11:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="44694528"/>
+        <c:axId val="46267008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44694528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46267008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46267008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44694528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$K$15:$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$M$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$K$15:$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$N$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$K$15:$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$N$15:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53100000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neural Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$K$15:$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$O$15:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63300000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="96860800"/>
+        <c:axId val="58344192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="96860800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58344192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58344192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96860800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$K$19:$K$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$L$19:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$M$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$K$19:$K$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$M$19:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$N$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$K$19:$K$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$N$19:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.90600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neural Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$K$19:$K$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$O$19:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="84899712"/>
+        <c:axId val="84901248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84899712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84901248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84901248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84899712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -461,6 +1325,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -756,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="K9" workbookViewId="0">
+      <selection activeCell="K10" activeCellId="1" sqref="K19:O21 K10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,9 +1723,11 @@
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +1741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -802,7 +1758,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -819,7 +1775,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -836,7 +1792,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -853,51 +1809,186 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
         <v>11</v>
       </c>
-      <c r="C27" t="s">
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
         <v>4</v>
       </c>
-      <c r="F27" t="s">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>0.88</v>
+      </c>
+      <c r="M11">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="M12">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="O12">
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>0.438</v>
+      </c>
+      <c r="M13">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="N13">
+        <v>0.433</v>
+      </c>
+      <c r="O13">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
         <v>8</v>
       </c>
-      <c r="B28">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="C28">
-        <v>0.89</v>
-      </c>
-      <c r="F28" t="s">
-        <v>2</v>
+      <c r="L15">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M15">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="N15">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="O15">
+        <v>0.878</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
         <v>9</v>
       </c>
-      <c r="B29">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="C29">
-        <v>0.60399999999999998</v>
+      <c r="L16">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="M16">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="N16">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="O16">
+        <v>0.59</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="17" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
         <v>10</v>
       </c>
-      <c r="B30">
-        <v>0.433</v>
-      </c>
-      <c r="C30">
-        <v>0.51700000000000002</v>
+      <c r="L17">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="M17">
+        <v>0.54</v>
+      </c>
+      <c r="N17">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="O17">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="M19">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="N19">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="O19">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M20">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="N20">
+        <v>0.504</v>
+      </c>
+      <c r="O20">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="21" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="M21">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="N21">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.437</v>
       </c>
     </row>
   </sheetData>

--- a/charts/first-results.xlsx
+++ b/charts/first-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Accuracy</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>Manhattan</t>
   </si>
   <si>
     <t>Precison</t>
@@ -380,11 +377,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87021440"/>
-        <c:axId val="87022976"/>
+        <c:axId val="81311616"/>
+        <c:axId val="81313152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87021440"/>
+        <c:axId val="81311616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,7 +390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87022976"/>
+        <c:crossAx val="81313152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -401,7 +398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87022976"/>
+        <c:axId val="81313152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,7 +409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87021440"/>
+        <c:crossAx val="81311616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -464,7 +461,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manhattan</c:v>
+                  <c:v>kNN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -668,11 +665,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44694528"/>
-        <c:axId val="46267008"/>
+        <c:axId val="87787008"/>
+        <c:axId val="87788544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44694528"/>
+        <c:axId val="87787008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46267008"/>
+        <c:crossAx val="87788544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -689,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46267008"/>
+        <c:axId val="87788544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44694528"/>
+        <c:crossAx val="87787008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -752,7 +749,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manhattan</c:v>
+                  <c:v>kNN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -956,11 +953,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="96860800"/>
-        <c:axId val="58344192"/>
+        <c:axId val="89203840"/>
+        <c:axId val="89205376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96860800"/>
+        <c:axId val="89203840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,7 +966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58344192"/>
+        <c:crossAx val="89205376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -977,7 +974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58344192"/>
+        <c:axId val="89205376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,7 +985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96860800"/>
+        <c:crossAx val="89203840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1040,11 +1037,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manhattan</c:v>
+                  <c:v>kNN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1096,6 +1098,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1198,6 +1205,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1244,11 +1256,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84899712"/>
-        <c:axId val="84901248"/>
+        <c:axId val="89232128"/>
+        <c:axId val="89233664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84899712"/>
+        <c:axId val="89232128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84901248"/>
+        <c:crossAx val="89233664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1265,7 +1277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84901248"/>
+        <c:axId val="89233664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84899712"/>
+        <c:crossAx val="89232128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1364,14 +1376,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1393,15 +1405,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1712,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K9" workbookViewId="0">
-      <selection activeCell="K10" activeCellId="1" sqref="K19:O21 K10:O10"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,7 +1828,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M10" t="s">
         <v>2</v>
@@ -1881,7 +1893,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">

--- a/charts/first-results.xlsx
+++ b/charts/first-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Accuracy</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Precison</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
   </si>
 </sst>
 </file>
@@ -96,6 +99,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC80896"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -130,7 +138,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$2</c:f>
+              <c:f>Tabelle1!$L$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -139,49 +147,38 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>F-Measure</c:v>
+              <c:f>Tabelle1!$K$11:$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$E$2</c:f>
+              <c:f>Tabelle1!$L$11:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>0.764293</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.751</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -192,7 +189,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$3</c:f>
+              <c:f>Tabelle1!$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -201,49 +198,38 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>F-Measure</c:v>
+              <c:f>Tabelle1!$K$11:$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$E$3</c:f>
+              <c:f>Tabelle1!$M$11:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>0.74673999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.73499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.747</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53800000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -254,7 +240,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$4</c:f>
+              <c:f>Tabelle1!$N$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -266,41 +252,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>F-Measure</c:v>
+              <c:f>Tabelle1!$K$11:$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$4:$E$4</c:f>
+              <c:f>Tabelle1!$N$11:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>0.74322999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73199999999999998</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,7 +291,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$5</c:f>
+              <c:f>Tabelle1!$O$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -320,49 +300,38 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>F-Measure</c:v>
+              <c:f>Tabelle1!$K$11:$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$5:$E$5</c:f>
+              <c:f>Tabelle1!$O$11:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>0.77983999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.77600000000000002</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51700000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,11 +346,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="81311616"/>
-        <c:axId val="81313152"/>
+        <c:axId val="53918336"/>
+        <c:axId val="53932416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81311616"/>
+        <c:axId val="53918336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -390,7 +359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81313152"/>
+        <c:crossAx val="53932416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -398,18 +367,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81313152"/>
+        <c:axId val="53932416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81311616"/>
+        <c:crossAx val="53918336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -469,7 +438,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$K$11:$K$13</c:f>
+              <c:f>Tabelle1!$K$15:$K$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -486,18 +455,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$L$11:$L$13</c:f>
+              <c:f>Tabelle1!$L$15:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.56499999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.438</c:v>
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65400000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,7 +489,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$K$11:$K$13</c:f>
+              <c:f>Tabelle1!$K$15:$K$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -537,18 +506,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$M$11:$M$13</c:f>
+              <c:f>Tabelle1!$M$15:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.86799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.51300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53800000000000003</c:v>
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -571,7 +540,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$K$11:$K$13</c:f>
+              <c:f>Tabelle1!$K$15:$K$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -588,18 +557,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$N$11:$N$13</c:f>
+              <c:f>Tabelle1!$N$15:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.86799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.433</c:v>
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53100000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -622,7 +591,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$K$11:$K$13</c:f>
+              <c:f>Tabelle1!$K$15:$K$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -639,18 +608,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$11:$O$13</c:f>
+              <c:f>Tabelle1!$O$15:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.60399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51700000000000002</c:v>
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63300000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -665,11 +634,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87787008"/>
-        <c:axId val="87788544"/>
+        <c:axId val="54221056"/>
+        <c:axId val="54222848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87787008"/>
+        <c:axId val="54221056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87788544"/>
+        <c:crossAx val="54222848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87788544"/>
+        <c:axId val="54222848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,7 +666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87787008"/>
+        <c:crossAx val="54221056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -745,7 +714,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$L$10</c:f>
+              <c:f>Tabelle1!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -754,38 +723,49 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$K$15:$K$17</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Medium</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>High</c:v>
+              <c:f>Tabelle1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F-Measure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$L$15:$L$17</c:f>
+              <c:f>Tabelle1!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.83799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.58099999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65400000000000003</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>0.764293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -796,7 +776,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$10</c:f>
+              <c:f>Tabelle1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -805,38 +785,49 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$K$15:$K$17</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Medium</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>High</c:v>
+              <c:f>Tabelle1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F-Measure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$M$15:$M$17</c:f>
+              <c:f>Tabelle1!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.84199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55900000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>0.74673999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,7 +838,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$10</c:f>
+              <c:f>Tabelle1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -859,35 +850,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$K$15:$K$17</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Medium</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>High</c:v>
+              <c:f>Tabelle1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F-Measure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$N$15:$N$17</c:f>
+              <c:f>Tabelle1!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.83199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55300000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53100000000000003</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>0.74322999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73199999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,7 +895,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$O$10</c:f>
+              <c:f>Tabelle1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -907,38 +904,111 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$K$15:$K$17</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Medium</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>High</c:v>
+              <c:f>Tabelle1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F-Measure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$15:$O$17</c:f>
+              <c:f>Tabelle1!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.878</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.63300000000000001</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>0.77983999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ensemble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C80896"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F-Measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,11 +1023,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89203840"/>
-        <c:axId val="89205376"/>
+        <c:axId val="88920448"/>
+        <c:axId val="88921984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89203840"/>
+        <c:axId val="88920448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +1036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89205376"/>
+        <c:crossAx val="88921984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -974,18 +1044,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89205376"/>
+        <c:axId val="88921984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89203840"/>
+        <c:crossAx val="88920448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1247,6 +1317,62 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$P$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ensemble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C80896"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$K$19:$K$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$P$19:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1256,11 +1382,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89232128"/>
-        <c:axId val="89233664"/>
+        <c:axId val="88659840"/>
+        <c:axId val="88661376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89232128"/>
+        <c:axId val="88659840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89233664"/>
+        <c:crossAx val="88661376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1277,7 +1403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89233664"/>
+        <c:axId val="88661376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89232128"/>
+        <c:crossAx val="88659840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1314,36 +1440,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -1366,7 +1462,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1396,6 +1492,36 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
@@ -1405,19 +1531,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Diagramm 7"/>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1722,10 +1848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,7 +1865,7 @@
     <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1770,7 +1896,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1787,7 +1913,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1804,7 +1930,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1821,12 +1947,29 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="C6">
+        <v>0.753</v>
+      </c>
+      <c r="D6">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>1</v>
       </c>
@@ -1839,8 +1982,11 @@
       <c r="O10" t="s">
         <v>4</v>
       </c>
+      <c r="P10" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
         <v>8</v>
       </c>
@@ -1857,7 +2003,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
         <v>9</v>
       </c>
@@ -1874,7 +2020,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
         <v>10</v>
       </c>
@@ -1891,12 +2037,12 @@
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
         <v>8</v>
       </c>
@@ -1913,7 +2059,7 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
         <v>9</v>
       </c>
@@ -1930,7 +2076,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="17" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
         <v>10</v>
       </c>
@@ -1947,12 +2093,12 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="18" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:16" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
         <v>8</v>
       </c>
@@ -1968,8 +2114,11 @@
       <c r="O19">
         <v>0.90200000000000002</v>
       </c>
+      <c r="P19">
+        <v>0.91600000000000004</v>
+      </c>
     </row>
-    <row r="20" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
         <v>9</v>
       </c>
@@ -1985,8 +2134,11 @@
       <c r="O20">
         <v>0.625</v>
       </c>
+      <c r="P20">
+        <v>0.53100000000000003</v>
+      </c>
     </row>
-    <row r="21" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
         <v>10</v>
       </c>
@@ -2001,6 +2153,9 @@
       </c>
       <c r="O21">
         <v>0.437</v>
+      </c>
+      <c r="P21">
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>

--- a/charts/first-results.xlsx
+++ b/charts/first-results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Accuracy</t>
   </si>
@@ -51,16 +51,10 @@
     <t>High</t>
   </si>
   <si>
-    <t>Ensemble (1)</t>
+    <t>Ensemble</t>
   </si>
   <si>
-    <t>Ensemble (2)</t>
-  </si>
-  <si>
-    <t>Ensemble(1)</t>
-  </si>
-  <si>
-    <t>Ensemble(2)</t>
+    <t xml:space="preserve">Ensemble </t>
   </si>
 </sst>
 </file>
@@ -391,7 +385,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ensemble (1)</c:v>
+                  <c:v>Ensemble </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -439,70 +433,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.76500000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ensemble (2)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>F-Measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$B$7:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.755</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,11 +447,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="40748544"/>
-        <c:axId val="40750080"/>
+        <c:axId val="80923648"/>
+        <c:axId val="80929536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40748544"/>
+        <c:axId val="80923648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40750080"/>
+        <c:crossAx val="80929536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -538,7 +468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40750080"/>
+        <c:axId val="80929536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.79"/>
@@ -551,7 +481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40748544"/>
+        <c:crossAx val="80923648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -822,7 +752,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ensemble(1)</c:v>
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -864,47 +794,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.48399999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$Q$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ensemble(2)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$Q$11:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.86099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.56499999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.59199999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -919,11 +808,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41752448"/>
-        <c:axId val="41753984"/>
+        <c:axId val="81763712"/>
+        <c:axId val="81769600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41752448"/>
+        <c:axId val="81763712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41753984"/>
+        <c:crossAx val="81769600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -940,7 +829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41753984"/>
+        <c:axId val="81769600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41752448"/>
+        <c:crossAx val="81763712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1325,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K8" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1231,7 @@
     <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1373,7 +1262,7 @@
         <v>0.76200000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1390,7 +1279,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1407,7 +1296,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1424,9 +1313,9 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>0.77</v>
@@ -1441,29 +1330,15 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C7">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.755</v>
-      </c>
-      <c r="E7">
-        <v>0.75600000000000001</v>
-      </c>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>1</v>
       </c>
@@ -1477,13 +1352,10 @@
         <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
         <v>8</v>
       </c>
@@ -1502,11 +1374,8 @@
       <c r="P11">
         <v>0.89400000000000002</v>
       </c>
-      <c r="Q11">
-        <v>0.86099999999999999</v>
-      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
         <v>9</v>
       </c>
@@ -1525,11 +1394,8 @@
       <c r="P12">
         <v>0.58399999999999996</v>
       </c>
-      <c r="Q12">
-        <v>0.56499999999999995</v>
-      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
         <v>10</v>
       </c>
@@ -1547,9 +1413,6 @@
       </c>
       <c r="P13">
         <v>0.48399999999999999</v>
-      </c>
-      <c r="Q13">
-        <v>0.59199999999999997</v>
       </c>
     </row>
   </sheetData>
